--- a/Nacho/ESRI_Variables.xlsx
+++ b/Nacho/ESRI_Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95e98788c06849e3/4_NYCDSA/4_NYCDSA_Bootcamp/0_Projects/3_Machine_Learning/3_EDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{109657D3-28EA-4768-9172-0B6551B15D2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{109657D3-28EA-4768-9172-0B6551B15D2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{43D84EF9-8403-46DF-ACD6-99E834F2B82B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{C7DB5E7B-B15F-489D-B8C2-8B9462FCBE26}"/>
   </bookViews>
@@ -473,10 +473,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
